--- a/Code/Results/Cases/Case_8_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.51109679920785</v>
+        <v>13.50714094609852</v>
       </c>
       <c r="C2">
-        <v>9.434235369124856</v>
+        <v>9.900071728817576</v>
       </c>
       <c r="D2">
-        <v>5.150403405104711</v>
+        <v>5.134168736372224</v>
       </c>
       <c r="E2">
-        <v>28.32761411252289</v>
+        <v>28.45751274370238</v>
       </c>
       <c r="F2">
-        <v>19.26800201193525</v>
+        <v>18.34915391733855</v>
       </c>
       <c r="G2">
-        <v>2.097618575284433</v>
+        <v>3.479006622578571</v>
       </c>
       <c r="H2">
-        <v>2.546874842000835</v>
+        <v>2.644499233221014</v>
       </c>
       <c r="I2">
-        <v>2.601614440534576</v>
+        <v>2.545537909032682</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.46865259899014</v>
+        <v>13.64248805411641</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.80589209226141</v>
       </c>
       <c r="M2">
-        <v>12.6288334569991</v>
+        <v>8.386504521327307</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.82270200869349</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.77342454485157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.95346838595729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.67195700048935</v>
+        <v>12.7043862888268</v>
       </c>
       <c r="C3">
-        <v>8.925954105185262</v>
+        <v>9.309104421307714</v>
       </c>
       <c r="D3">
-        <v>4.984392995966058</v>
+        <v>4.933572456448015</v>
       </c>
       <c r="E3">
-        <v>26.46799233892936</v>
+        <v>26.61746528216646</v>
       </c>
       <c r="F3">
-        <v>18.90270885497079</v>
+        <v>18.00968888916917</v>
       </c>
       <c r="G3">
-        <v>2.101393573188972</v>
+        <v>3.972956428175479</v>
       </c>
       <c r="H3">
-        <v>2.315889348756402</v>
+        <v>2.427023228485033</v>
       </c>
       <c r="I3">
-        <v>2.756145065571413</v>
+        <v>2.527152393783515</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.5461088773884</v>
+        <v>13.73437267386847</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.95922358441442</v>
       </c>
       <c r="M3">
-        <v>11.93256065046534</v>
+        <v>8.389591791369352</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.12568581128826</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.68532816697579</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.87591373992032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.12596575366709</v>
+        <v>12.18258297249951</v>
       </c>
       <c r="C4">
-        <v>8.602515612120506</v>
+        <v>8.932364944750908</v>
       </c>
       <c r="D4">
-        <v>4.87908567863482</v>
+        <v>4.806013108307356</v>
       </c>
       <c r="E4">
-        <v>25.26022955799122</v>
+        <v>25.42261069611597</v>
       </c>
       <c r="F4">
-        <v>18.68287097838799</v>
+        <v>17.80241201658787</v>
       </c>
       <c r="G4">
-        <v>2.103784961064853</v>
+        <v>4.286033062609813</v>
       </c>
       <c r="H4">
-        <v>2.16903768514994</v>
+        <v>2.288662665960473</v>
       </c>
       <c r="I4">
-        <v>2.85511000023258</v>
+        <v>2.607879886419353</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.59723105194929</v>
+        <v>13.79233790496006</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.0549278741053</v>
       </c>
       <c r="M4">
-        <v>11.48386136905443</v>
+        <v>8.409610377136284</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.67699951202011</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.63643756564466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.83081218031234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.89333389413503</v>
+        <v>11.96040999846183</v>
       </c>
       <c r="C5">
-        <v>8.477298542204814</v>
+        <v>8.784801438799917</v>
       </c>
       <c r="D5">
-        <v>4.83695722070459</v>
+        <v>4.754621364667297</v>
       </c>
       <c r="E5">
-        <v>24.75123779907404</v>
+        <v>24.91915175183096</v>
       </c>
       <c r="F5">
-        <v>18.58479169602869</v>
+        <v>17.70881852963564</v>
       </c>
       <c r="G5">
-        <v>2.104784371218952</v>
+        <v>4.416930478189515</v>
       </c>
       <c r="H5">
-        <v>2.107768877517856</v>
+        <v>2.230925261138683</v>
       </c>
       <c r="I5">
-        <v>2.899440718671753</v>
+        <v>2.645323151978438</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.61232193440845</v>
+        <v>13.81011130798422</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.08859724991896</v>
       </c>
       <c r="M5">
-        <v>11.29757405405675</v>
+        <v>8.418730734386596</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.49079638502244</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.61065298198909</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.80608945515204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.85127794711148</v>
+        <v>11.92025815302016</v>
       </c>
       <c r="C6">
-        <v>8.467828280994565</v>
+        <v>8.771549861073186</v>
       </c>
       <c r="D6">
-        <v>4.83188247249606</v>
+        <v>4.748052173274058</v>
       </c>
       <c r="E6">
-        <v>24.6654840689557</v>
+        <v>24.83435426606269</v>
       </c>
       <c r="F6">
-        <v>18.55674598145018</v>
+        <v>17.68172233089606</v>
       </c>
       <c r="G6">
-        <v>2.104958874782697</v>
+        <v>4.439811493302588</v>
       </c>
       <c r="H6">
-        <v>2.097344102029844</v>
+        <v>2.22111340851975</v>
       </c>
       <c r="I6">
-        <v>2.910686664085825</v>
+        <v>2.656236628233251</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.60681541006385</v>
+        <v>13.80549584183957</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.08722942120633</v>
       </c>
       <c r="M6">
-        <v>11.26853550533617</v>
+        <v>8.416168094672329</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.46170271488682</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.59773070008192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.79352902333867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.11495146917198</v>
+        <v>12.17495888350951</v>
       </c>
       <c r="C7">
-        <v>8.631638967386252</v>
+        <v>8.944098433514828</v>
       </c>
       <c r="D7">
-        <v>4.883866858208807</v>
+        <v>4.820987982090251</v>
       </c>
       <c r="E7">
-        <v>25.25281703166626</v>
+        <v>25.41413111275228</v>
       </c>
       <c r="F7">
-        <v>18.64944809964464</v>
+        <v>17.71359306916565</v>
       </c>
       <c r="G7">
-        <v>2.103818205641713</v>
+        <v>4.347293651715948</v>
       </c>
       <c r="H7">
-        <v>2.167752469255595</v>
+        <v>2.286624084489959</v>
       </c>
       <c r="I7">
-        <v>2.865831206402543</v>
+        <v>2.621962737442955</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.57541510206909</v>
+        <v>13.74647291350209</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.01410395419371</v>
       </c>
       <c r="M7">
-        <v>11.48729875264247</v>
+        <v>8.381774081443574</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.67603518281821</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.61235411263834</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.76629719297043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.21846031403938</v>
+        <v>13.23613456288507</v>
       </c>
       <c r="C8">
-        <v>9.299667952115785</v>
+        <v>9.684415630320281</v>
       </c>
       <c r="D8">
-        <v>5.100798751413673</v>
+        <v>5.106082737714771</v>
       </c>
       <c r="E8">
-        <v>27.69931554302455</v>
+        <v>27.832228274228</v>
       </c>
       <c r="F8">
-        <v>19.09979473990652</v>
+        <v>18.01070666496321</v>
       </c>
       <c r="G8">
-        <v>2.09892973554479</v>
+        <v>3.984886614203607</v>
       </c>
       <c r="H8">
-        <v>2.467684375448942</v>
+        <v>2.567321661546525</v>
       </c>
       <c r="I8">
-        <v>2.667127001011704</v>
+        <v>2.504621418393319</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.46554621072191</v>
+        <v>13.56427154876114</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.76797114986204</v>
       </c>
       <c r="M8">
-        <v>12.40059857643601</v>
+        <v>8.30707809171721</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.5808946998947</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.71093837630618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.76251949645855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.15073999018668</v>
+        <v>15.08782515040511</v>
       </c>
       <c r="C9">
-        <v>10.46730424709624</v>
+        <v>11.03498205761309</v>
       </c>
       <c r="D9">
-        <v>5.489091518710862</v>
+        <v>5.581434858768691</v>
       </c>
       <c r="E9">
-        <v>31.97727674349803</v>
+        <v>32.06449060141959</v>
       </c>
       <c r="F9">
-        <v>20.07098608404268</v>
+        <v>18.86094374800159</v>
       </c>
       <c r="G9">
-        <v>2.089878496538524</v>
+        <v>2.984469606096348</v>
       </c>
       <c r="H9">
-        <v>3.017671880265755</v>
+        <v>3.083993646125585</v>
       </c>
       <c r="I9">
-        <v>2.658208349338392</v>
+        <v>2.794687797726151</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.31936649265993</v>
+        <v>13.34790491866463</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.40920345986533</v>
       </c>
       <c r="M9">
-        <v>14.01101253875288</v>
+        <v>8.387520741847464</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.19316365075732</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.98909357409025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.96634811461093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.42064545466894</v>
+        <v>16.32251481111706</v>
       </c>
       <c r="C10">
-        <v>11.2504964066345</v>
+        <v>11.84788586136008</v>
       </c>
       <c r="D10">
-        <v>5.786795109591311</v>
+        <v>5.990278418687532</v>
       </c>
       <c r="E10">
-        <v>33.92870420965657</v>
+        <v>33.98021724454963</v>
       </c>
       <c r="F10">
-        <v>20.64137442624566</v>
+        <v>19.05280068693195</v>
       </c>
       <c r="G10">
-        <v>2.083744789418119</v>
+        <v>4.010423853652063</v>
       </c>
       <c r="H10">
-        <v>3.364829899477115</v>
+        <v>3.403991187581395</v>
       </c>
       <c r="I10">
-        <v>2.905457989377489</v>
+        <v>2.991107667636242</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.14670743758925</v>
+        <v>12.99075719800098</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.01462756590202</v>
       </c>
       <c r="M10">
-        <v>15.0807094689409</v>
+        <v>8.351060913964002</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.24397277434226</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16.10039493741079</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.80061940099966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.97708372229818</v>
+        <v>16.91535718598119</v>
       </c>
       <c r="C11">
-        <v>11.38444532820058</v>
+        <v>11.76312107725359</v>
       </c>
       <c r="D11">
-        <v>6.174533793035596</v>
+        <v>6.516874876655443</v>
       </c>
       <c r="E11">
-        <v>27.27624213808127</v>
+        <v>27.31254517799924</v>
       </c>
       <c r="F11">
-        <v>19.6081178626062</v>
+        <v>17.48261603979492</v>
       </c>
       <c r="G11">
-        <v>2.082506852810565</v>
+        <v>7.911878855149661</v>
       </c>
       <c r="H11">
-        <v>3.826281832641218</v>
+        <v>3.848982042110585</v>
       </c>
       <c r="I11">
-        <v>2.969078568516448</v>
+        <v>3.036304048847768</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.40253324200631</v>
+        <v>12.10675013784157</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.38670377125831</v>
       </c>
       <c r="M11">
-        <v>15.47521746627852</v>
+        <v>7.673603523926661</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.58354361043466</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15.17275770366704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.50669624566513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.20121888642223</v>
+        <v>17.16869691374657</v>
       </c>
       <c r="C12">
-        <v>11.30413234692923</v>
+        <v>11.54047812192176</v>
       </c>
       <c r="D12">
-        <v>6.440821556933127</v>
+        <v>6.845651145407797</v>
       </c>
       <c r="E12">
-        <v>21.24294069100601</v>
+        <v>21.27769419213188</v>
       </c>
       <c r="F12">
-        <v>18.64587778906949</v>
+        <v>16.33410398510643</v>
       </c>
       <c r="G12">
-        <v>2.082523480789209</v>
+        <v>9.810210875773629</v>
       </c>
       <c r="H12">
-        <v>4.774674359407988</v>
+        <v>4.790417358883904</v>
       </c>
       <c r="I12">
-        <v>2.972799220479256</v>
+        <v>3.036090979780844</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.86289926782039</v>
+        <v>11.59836001599121</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.06504221124147</v>
       </c>
       <c r="M12">
-        <v>15.58642566042794</v>
+        <v>7.226096269567051</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.66333516147421</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.40158566448966</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.64584097237237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.18145074727587</v>
+        <v>17.16837779761416</v>
       </c>
       <c r="C13">
-        <v>11.09035453351571</v>
+        <v>11.26220598384777</v>
       </c>
       <c r="D13">
-        <v>6.640156083671547</v>
+        <v>7.022253625374772</v>
       </c>
       <c r="E13">
-        <v>15.15256921584463</v>
+        <v>15.20009634761487</v>
       </c>
       <c r="F13">
-        <v>17.62104209838094</v>
+        <v>15.49552575263987</v>
       </c>
       <c r="G13">
-        <v>2.083530217562335</v>
+        <v>9.413756255146815</v>
       </c>
       <c r="H13">
-        <v>5.91265807715914</v>
+        <v>5.927236171613186</v>
       </c>
       <c r="I13">
-        <v>2.935414631004521</v>
+        <v>3.007684336622442</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.41924743753076</v>
+        <v>11.33187518454709</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.913808985335486</v>
       </c>
       <c r="M13">
-        <v>15.49720323327059</v>
+        <v>6.945853585457175</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.5648905867937</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.66879698507882</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.09379382571449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.05563248441672</v>
+        <v>17.05205868279718</v>
       </c>
       <c r="C14">
-        <v>10.8863700561552</v>
+        <v>11.045393614493</v>
       </c>
       <c r="D14">
-        <v>6.752804959196395</v>
+        <v>7.079442033822279</v>
       </c>
       <c r="E14">
-        <v>10.83925532795776</v>
+        <v>10.90863002173127</v>
       </c>
       <c r="F14">
-        <v>16.86455270437877</v>
+        <v>15.02632761102996</v>
       </c>
       <c r="G14">
-        <v>2.08466583003325</v>
+        <v>8.133258485957381</v>
       </c>
       <c r="H14">
-        <v>6.776742657531179</v>
+        <v>6.791794506320768</v>
       </c>
       <c r="I14">
-        <v>2.892514866715791</v>
+        <v>2.976767830246586</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.15568616503106</v>
+        <v>11.23576736228257</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.864965668818881</v>
       </c>
       <c r="M14">
-        <v>15.34500922853085</v>
+        <v>6.818045605489304</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.41556768850213</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.17347781621222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.82685079460525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.96953057324707</v>
+        <v>16.96679314027156</v>
       </c>
       <c r="C15">
-        <v>10.81644620642648</v>
+        <v>10.98600164908856</v>
       </c>
       <c r="D15">
-        <v>6.767484186903492</v>
+        <v>7.063703899955119</v>
       </c>
       <c r="E15">
-        <v>9.774131248279874</v>
+        <v>9.854504537501901</v>
       </c>
       <c r="F15">
-        <v>16.65814041195188</v>
+        <v>14.95587577698194</v>
       </c>
       <c r="G15">
-        <v>2.085185384022264</v>
+        <v>7.398769954196209</v>
       </c>
       <c r="H15">
-        <v>6.975348927683929</v>
+        <v>6.99108080928267</v>
       </c>
       <c r="I15">
-        <v>2.874083394596904</v>
+        <v>2.964445108196028</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.10467661885963</v>
+        <v>11.24373269974066</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.872195533297964</v>
       </c>
       <c r="M15">
-        <v>15.26593866682879</v>
+        <v>6.810021307239738</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.34138025112987</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.05491362404653</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.80537061790583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.45172687124593</v>
+        <v>16.43829534513924</v>
       </c>
       <c r="C16">
-        <v>10.54016896542695</v>
+        <v>10.82386262361199</v>
       </c>
       <c r="D16">
-        <v>6.613282625419181</v>
+        <v>6.770230526396377</v>
       </c>
       <c r="E16">
-        <v>9.675118983797756</v>
+        <v>9.787100413472281</v>
       </c>
       <c r="F16">
-        <v>16.57329455618742</v>
+        <v>15.41228363960488</v>
       </c>
       <c r="G16">
-        <v>2.087583527580942</v>
+        <v>4.082826588224657</v>
       </c>
       <c r="H16">
-        <v>6.703998821237778</v>
+        <v>6.725605487334044</v>
       </c>
       <c r="I16">
-        <v>2.779704194054532</v>
+        <v>2.896945130003179</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.26436349268282</v>
+        <v>11.56028891056195</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.07760008197076</v>
       </c>
       <c r="M16">
-        <v>14.84347092204107</v>
+        <v>7.037908321010552</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.95565674903792</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.14169628865826</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.23810630530139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.11501458794177</v>
+        <v>16.09230116336806</v>
       </c>
       <c r="C17">
-        <v>10.43813488340353</v>
+        <v>10.79800031466183</v>
       </c>
       <c r="D17">
-        <v>6.431171425951026</v>
+        <v>6.529893790314024</v>
       </c>
       <c r="E17">
-        <v>11.9839706626042</v>
+        <v>12.09658956551802</v>
       </c>
       <c r="F17">
-        <v>16.91742651421881</v>
+        <v>15.9540148515142</v>
       </c>
       <c r="G17">
-        <v>2.088841157645391</v>
+        <v>2.96700882398543</v>
       </c>
       <c r="H17">
-        <v>5.985951255758282</v>
+        <v>6.013038505561902</v>
       </c>
       <c r="I17">
-        <v>2.729690006301677</v>
+        <v>2.860610759099331</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.52070326525375</v>
+        <v>11.85070970428237</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.27698877409451</v>
       </c>
       <c r="M17">
-        <v>14.59721263199022</v>
+        <v>7.259669429926745</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.73183209979335</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.46822106004633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.68204972034494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.91008771400632</v>
+        <v>15.87217013576942</v>
       </c>
       <c r="C18">
-        <v>10.4595593307587</v>
+        <v>10.89969410399054</v>
       </c>
       <c r="D18">
-        <v>6.203363488261441</v>
+        <v>6.283724846502093</v>
       </c>
       <c r="E18">
-        <v>16.77783149845393</v>
+        <v>16.87728828062884</v>
       </c>
       <c r="F18">
-        <v>17.68977845087571</v>
+        <v>16.75705442246358</v>
       </c>
       <c r="G18">
-        <v>2.089143241993229</v>
+        <v>2.628125935997683</v>
       </c>
       <c r="H18">
-        <v>4.870119063899927</v>
+        <v>4.905352486314932</v>
       </c>
       <c r="I18">
-        <v>2.711176193283144</v>
+        <v>2.845569798665236</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.91838584839834</v>
+        <v>12.21164637384489</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.53022659958117</v>
       </c>
       <c r="M18">
-        <v>14.47789819879464</v>
+        <v>7.553376660662102</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.63127990748107</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.06158512866888</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.28101906834342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.81967540298199</v>
+        <v>15.76085653800344</v>
       </c>
       <c r="C19">
-        <v>10.6319572596538</v>
+        <v>11.16042544979216</v>
       </c>
       <c r="D19">
-        <v>5.972333641091545</v>
+        <v>6.056686988847477</v>
       </c>
       <c r="E19">
-        <v>23.19363062207657</v>
+        <v>23.2804242230262</v>
       </c>
       <c r="F19">
-        <v>18.69548815511211</v>
+        <v>17.70170650692665</v>
       </c>
       <c r="G19">
-        <v>2.088539866896031</v>
+        <v>2.474413316385597</v>
       </c>
       <c r="H19">
-        <v>3.745158428387158</v>
+        <v>3.792326255063116</v>
       </c>
       <c r="I19">
-        <v>2.733399623822349</v>
+        <v>2.864560546672276</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.39348119440058</v>
+        <v>12.60755127936165</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.80943299662274</v>
       </c>
       <c r="M19">
-        <v>14.48383403341916</v>
+        <v>7.887405605724944</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.65348421527718</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.8034010249805</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.96600376150544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.07811767635921</v>
+        <v>15.98148177549266</v>
       </c>
       <c r="C20">
-        <v>11.12527866995006</v>
+        <v>11.76362324932412</v>
       </c>
       <c r="D20">
-        <v>5.726594953232324</v>
+        <v>5.868167023040987</v>
       </c>
       <c r="E20">
-        <v>33.38717308897026</v>
+        <v>33.45147809820969</v>
       </c>
       <c r="F20">
-        <v>20.39377658519748</v>
+        <v>19.08869759020602</v>
       </c>
       <c r="G20">
-        <v>2.085392403260269</v>
+        <v>2.714915939645572</v>
       </c>
       <c r="H20">
-        <v>3.271322619950295</v>
+        <v>3.320227465693733</v>
       </c>
       <c r="I20">
-        <v>2.851708449821648</v>
+        <v>2.957257059696426</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.11991313270897</v>
+        <v>13.10638615332192</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.13034873314655</v>
       </c>
       <c r="M20">
-        <v>14.82178144192192</v>
+        <v>8.37692234814301</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.00126272323638</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.9942386537497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.90927028551057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.00762165806844</v>
+        <v>16.92420431145345</v>
       </c>
       <c r="C21">
-        <v>11.73316046813508</v>
+        <v>12.16003633627577</v>
       </c>
       <c r="D21">
-        <v>5.901635141538882</v>
+        <v>6.304325990127794</v>
       </c>
       <c r="E21">
-        <v>36.15737657087519</v>
+        <v>36.17809388884896</v>
       </c>
       <c r="F21">
-        <v>21.08230584761989</v>
+        <v>18.53380937042606</v>
       </c>
       <c r="G21">
-        <v>2.080480793996892</v>
+        <v>9.530777473331847</v>
       </c>
       <c r="H21">
-        <v>3.585631283509506</v>
+        <v>3.60143499427799</v>
       </c>
       <c r="I21">
-        <v>3.045852507399391</v>
+        <v>3.094037043451969</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.12584604304142</v>
+        <v>12.50761823651162</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.63728514188638</v>
       </c>
       <c r="M21">
-        <v>15.6189416322311</v>
+        <v>8.064267600028474</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.72765414264747</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16.27652496495406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.24536047932848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.5967003388184</v>
+        <v>17.52711529896969</v>
       </c>
       <c r="C22">
-        <v>12.07488220036238</v>
+        <v>12.34934600882535</v>
       </c>
       <c r="D22">
-        <v>6.020885777082907</v>
+        <v>6.606030080959505</v>
       </c>
       <c r="E22">
-        <v>37.45802302538396</v>
+        <v>37.45226149922088</v>
       </c>
       <c r="F22">
-        <v>21.49541185774032</v>
+        <v>18.08241176790663</v>
       </c>
       <c r="G22">
-        <v>2.077397386159165</v>
+        <v>14.56769522341404</v>
       </c>
       <c r="H22">
-        <v>3.769608067793808</v>
+        <v>3.765216878702716</v>
       </c>
       <c r="I22">
-        <v>3.163833587420158</v>
+        <v>3.175749355002269</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.12425262058521</v>
+        <v>12.08961834236928</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.32450090942467</v>
       </c>
       <c r="M22">
-        <v>16.10969749949764</v>
+        <v>7.826495342293378</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.17078296855788</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.43884842949119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.74557391257903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.29157131972068</v>
+        <v>17.2080181216492</v>
       </c>
       <c r="C23">
-        <v>11.86556518219274</v>
+        <v>12.25458318448675</v>
       </c>
       <c r="D23">
-        <v>5.951947666892112</v>
+        <v>6.414372147917264</v>
       </c>
       <c r="E23">
-        <v>36.76945046907431</v>
+        <v>36.77921242620789</v>
       </c>
       <c r="F23">
-        <v>21.30769144572539</v>
+        <v>18.48196059390246</v>
       </c>
       <c r="G23">
-        <v>2.079020582398881</v>
+        <v>11.06169819464567</v>
       </c>
       <c r="H23">
-        <v>3.672168746090493</v>
+        <v>3.679611213226716</v>
       </c>
       <c r="I23">
-        <v>3.097042553946882</v>
+        <v>3.12860581749193</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.15021903821709</v>
+        <v>12.38985330073334</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.53514150028481</v>
       </c>
       <c r="M23">
-        <v>15.84414939870841</v>
+        <v>8.02727561159505</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.93837871619057</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16.37771574414596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.13215351785828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.07190130092918</v>
+        <v>15.97244843921306</v>
       </c>
       <c r="C24">
-        <v>11.09357250973565</v>
+        <v>11.74239012297045</v>
       </c>
       <c r="D24">
-        <v>5.692296237777482</v>
+        <v>5.832031964031856</v>
       </c>
       <c r="E24">
-        <v>34.04936074707332</v>
+        <v>34.11336804102234</v>
       </c>
       <c r="F24">
-        <v>20.55040952667428</v>
+        <v>19.24402293834086</v>
       </c>
       <c r="G24">
-        <v>2.085297638190692</v>
+        <v>2.656828678928275</v>
       </c>
       <c r="H24">
-        <v>3.295205088613693</v>
+        <v>3.343974178815195</v>
       </c>
       <c r="I24">
-        <v>2.846583430628406</v>
+        <v>2.94993865529211</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.21855493689211</v>
+        <v>13.19439858523682</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.19281673393101</v>
       </c>
       <c r="M24">
-        <v>14.80707805169119</v>
+        <v>8.449652457181831</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.98877710589933</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.11808136868652</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.02994175041135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.64217430042369</v>
+        <v>14.59668321280279</v>
       </c>
       <c r="C25">
-        <v>10.20969346030054</v>
+        <v>10.75123914175726</v>
       </c>
       <c r="D25">
-        <v>5.396302690185718</v>
+        <v>5.452638844383007</v>
       </c>
       <c r="E25">
-        <v>30.87434302660508</v>
+        <v>30.97500452140531</v>
       </c>
       <c r="F25">
-        <v>19.75089505703102</v>
+        <v>18.65260898357303</v>
       </c>
       <c r="G25">
-        <v>2.092299528640972</v>
+        <v>3.00605606853742</v>
       </c>
       <c r="H25">
-        <v>2.87218893907786</v>
+        <v>2.948574632535437</v>
       </c>
       <c r="I25">
-        <v>2.569330717061392</v>
+        <v>2.726550514118852</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.31597108612504</v>
+        <v>13.40414243542247</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.50438849119842</v>
       </c>
       <c r="M25">
-        <v>13.60328901673215</v>
+        <v>8.349497470243813</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.78961785213379</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.86748640373221</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.925243270835</v>
       </c>
     </row>
   </sheetData>
